--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-006_勘定体系値セットの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-006_勘定体系値セットの管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\92_分社化\10_設計フェーズ\10_成果物\【触らないでください】40_その他\ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20101～20200\E_本稼動_20102直営店対応\20_成果物\BR100\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="1245" windowWidth="14715" windowHeight="8820" activeTab="2"/>
+    <workbookView xWindow="408" yWindow="2448" windowWidth="14712" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -785,7 +785,7 @@
     <definedName name="_Fill" localSheetId="2" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill" localSheetId="1" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill" hidden="1">[2]テーブル仕様!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'6'!$A$31:$AA$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'6'!$A$32:$AA$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">手順!#REF!</definedName>
     <definedName name="_FND2" localSheetId="1">#REF!</definedName>
     <definedName name="_FND2">#REF!</definedName>
@@ -1791,7 +1791,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="114">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -2562,6 +2562,26 @@
   <si>
     <t>設定および保守 &gt; タスク &gt; 検索</t>
     <phoneticPr fontId="59"/>
+  </si>
+  <si>
+    <t>SCSK 細沼</t>
+    <rPh sb="5" eb="7">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>伊藤園フードサービス</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>E_本稼動_20102対応
+値セット「XX03_COMPANY」にコード「003」（株式会社伊藤園フードサービス）を追加</t>
+    <phoneticPr fontId="36"/>
   </si>
 </sst>
 </file>
@@ -3656,7 +3676,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
@@ -3775,6 +3795,21 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="65" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="66" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="18" borderId="0" xfId="66" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" xfId="66" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="66" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="4" xfId="67" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3819,6 +3854,15 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3826,15 +3870,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3897,15 +3932,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="49" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3915,14 +3941,14 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="49" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3939,6 +3965,15 @@
     <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3947,15 +3982,6 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="66" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="53" fillId="18" borderId="0" xfId="66" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" xfId="66" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="66" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="4" xfId="67" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="68">
@@ -4032,6 +4058,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFFF99CC"/>
     </mruColors>
   </colors>
@@ -4105,8 +4132,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="421821" y="5655129"/>
-          <a:ext cx="15063108" cy="7265542"/>
+          <a:off x="370114" y="5540829"/>
+          <a:ext cx="13552715" cy="6971628"/>
           <a:chOff x="370114" y="5595257"/>
           <a:chExt cx="11647715" cy="5795971"/>
         </a:xfrm>
@@ -12551,1182 +12578,1190 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ14" sqref="AQ14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="8" width="2.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.625" style="1"/>
+    <col min="1" max="8" width="2.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12" thickBot="1"/>
-    <row r="2" spans="1:37" ht="12" thickBot="1">
-      <c r="A2" s="76" t="s">
+    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
+    <row r="2" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="76" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="46" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="47"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="54"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="97">
+      <c r="A3" s="101">
         <v>44865</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="82" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="48" t="s">
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="50"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="57"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="98">
+      <c r="A4" s="102">
         <v>45041</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="85" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="51" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="53"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="60"/>
     </row>
     <row r="5" spans="1:37">
-      <c r="A5" s="91">
+      <c r="A5" s="95">
         <v>45047</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="85" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="54" t="s">
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="56"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="63"/>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="98">
+      <c r="A6" s="102">
         <v>45086</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="85" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="59" t="s">
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="61"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="67"/>
+      <c r="AH6" s="67"/>
+      <c r="AI6" s="67"/>
+      <c r="AJ6" s="67"/>
+      <c r="AK6" s="68"/>
     </row>
     <row r="7" spans="1:37" ht="22.35" customHeight="1">
-      <c r="A7" s="88">
+      <c r="A7" s="95">
         <v>45198</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="94" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="62" t="s">
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="63"/>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="63"/>
-      <c r="AG7" s="63"/>
-      <c r="AH7" s="63"/>
-      <c r="AI7" s="63"/>
-      <c r="AJ7" s="63"/>
-      <c r="AK7" s="64"/>
-    </row>
-    <row r="8" spans="1:37">
-      <c r="A8" s="91"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="67"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="71"/>
+    </row>
+    <row r="8" spans="1:37" ht="22.5" customHeight="1">
+      <c r="A8" s="98">
+        <v>45485</v>
+      </c>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="73"/>
+      <c r="AJ8" s="73"/>
+      <c r="AK8" s="74"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="69"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="69"/>
-      <c r="AK9" s="70"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="77"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="67"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="71"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="79"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="57"/>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="58"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="65"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="79"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="57"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="58"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="65"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="79"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="57"/>
-      <c r="AJ13" s="57"/>
-      <c r="AK13" s="58"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="65"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="57"/>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="58"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="65"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="57"/>
-      <c r="AI15" s="57"/>
-      <c r="AJ15" s="57"/>
-      <c r="AK15" s="58"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="65"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="58"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="64"/>
+      <c r="AG16" s="64"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="64"/>
+      <c r="AK16" s="65"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="57"/>
-      <c r="AI17" s="57"/>
-      <c r="AJ17" s="57"/>
-      <c r="AK17" s="58"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="64"/>
+      <c r="AE17" s="64"/>
+      <c r="AF17" s="64"/>
+      <c r="AG17" s="64"/>
+      <c r="AH17" s="64"/>
+      <c r="AI17" s="64"/>
+      <c r="AJ17" s="64"/>
+      <c r="AK17" s="65"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="57"/>
-      <c r="AJ18" s="57"/>
-      <c r="AK18" s="58"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="64"/>
+      <c r="AG18" s="64"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="64"/>
+      <c r="AK18" s="65"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="57"/>
-      <c r="AJ19" s="57"/>
-      <c r="AK19" s="58"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="64"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="64"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="64"/>
+      <c r="AK19" s="65"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="79"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="58"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="64"/>
+      <c r="AC20" s="64"/>
+      <c r="AD20" s="64"/>
+      <c r="AE20" s="64"/>
+      <c r="AF20" s="64"/>
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="64"/>
+      <c r="AJ20" s="64"/>
+      <c r="AK20" s="65"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="79"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="57"/>
-      <c r="AJ21" s="57"/>
-      <c r="AK21" s="58"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="64"/>
+      <c r="AF21" s="64"/>
+      <c r="AG21" s="64"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="64"/>
+      <c r="AJ21" s="64"/>
+      <c r="AK21" s="65"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="79"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="57"/>
-      <c r="AJ22" s="57"/>
-      <c r="AK22" s="58"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="64"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="64"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="64"/>
+      <c r="AK22" s="65"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="79"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="57"/>
-      <c r="AC23" s="57"/>
-      <c r="AD23" s="57"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="57"/>
-      <c r="AG23" s="57"/>
-      <c r="AH23" s="57"/>
-      <c r="AI23" s="57"/>
-      <c r="AJ23" s="57"/>
-      <c r="AK23" s="58"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="64"/>
+      <c r="AF23" s="64"/>
+      <c r="AG23" s="64"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="64"/>
+      <c r="AJ23" s="64"/>
+      <c r="AK23" s="65"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="57"/>
-      <c r="AC24" s="57"/>
-      <c r="AD24" s="57"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="57"/>
-      <c r="AG24" s="57"/>
-      <c r="AH24" s="57"/>
-      <c r="AI24" s="57"/>
-      <c r="AJ24" s="57"/>
-      <c r="AK24" s="58"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="64"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="64"/>
+      <c r="AK24" s="65"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="79"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="57"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="57"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="58"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="64"/>
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="64"/>
+      <c r="AK25" s="65"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="58"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="64"/>
+      <c r="AG26" s="64"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="64"/>
+      <c r="AJ26" s="64"/>
+      <c r="AK26" s="65"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="79"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="57"/>
-      <c r="AK27" s="58"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="65"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="79"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="58"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="65"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="79"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="57"/>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="57"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
-      <c r="AJ29" s="57"/>
-      <c r="AK29" s="58"/>
-    </row>
-    <row r="30" spans="1:37" ht="12" thickBot="1">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="71"/>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="71"/>
-      <c r="AG30" s="71"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="72"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="65"/>
+    </row>
+    <row r="30" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A30" s="80"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="78"/>
+      <c r="AF30" s="78"/>
+      <c r="AG30" s="78"/>
+      <c r="AH30" s="78"/>
+      <c r="AI30" s="78"/>
+      <c r="AJ30" s="78"/>
+      <c r="AK30" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -13827,46 +13862,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF99CC"/>
-  </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="44" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="45" customWidth="1"/>
-    <col min="3" max="5" width="37.625" style="45" customWidth="1"/>
-    <col min="6" max="16384" width="9.875" style="44"/>
+    <col min="1" max="1" width="5.44140625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="45" customWidth="1"/>
+    <col min="3" max="5" width="37.6640625" style="45" customWidth="1"/>
+    <col min="6" max="16384" width="9.88671875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" ht="12"/>
-    <row r="2" spans="1:11" s="25" customFormat="1" ht="14.25">
+    <row r="1" spans="1:11" s="24" customFormat="1" ht="11.4"/>
+    <row r="2" spans="1:11" s="25" customFormat="1" ht="14.4">
       <c r="B2" s="26"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
     </row>
-    <row r="3" spans="1:11" s="25" customFormat="1" ht="19.5">
+    <row r="3" spans="1:11" s="25" customFormat="1" ht="18.600000000000001">
       <c r="B3" s="28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="25" customFormat="1" ht="14.25">
+    <row r="4" spans="1:11" s="25" customFormat="1" ht="14.4">
       <c r="B4" s="26"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:11" s="25" customFormat="1" ht="16.5">
+    <row r="5" spans="1:11" s="25" customFormat="1" ht="16.2">
       <c r="B5" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="25" customFormat="1" ht="15" thickBot="1"/>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="14.25">
+    <row r="6" spans="1:11" s="25" customFormat="1" thickBot="1"/>
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="14.4">
       <c r="A7" s="25"/>
       <c r="B7" s="30" t="s">
         <v>84</v>
@@ -13881,12 +13913,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="14.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="14.4">
       <c r="A8" s="25"/>
       <c r="B8" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="50" t="s">
         <v>109</v>
       </c>
       <c r="D8" s="35" t="s">
@@ -13894,7 +13926,7 @@
       </c>
       <c r="E8" s="36"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="15" thickBot="1">
+    <row r="9" spans="1:11" s="33" customFormat="1" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="37"/>
       <c r="C9" s="38"/>
@@ -13908,20 +13940,20 @@
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
     </row>
-    <row r="11" spans="1:11" s="105" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-    </row>
-    <row r="12" spans="1:11" s="105" customFormat="1" ht="21" customHeight="1">
-      <c r="B12" s="108" t="s">
+    <row r="11" spans="1:11" s="46" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="1:11" s="46" customFormat="1" ht="21" customHeight="1">
+      <c r="B12" s="49" t="s">
         <v>106</v>
       </c>
     </row>
@@ -13949,26 +13981,28 @@
     <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA919"/>
+  <dimension ref="A1:AA920"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="4" customWidth="1"/>
-    <col min="14" max="26" width="7.875" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="12.5" style="4"/>
+    <col min="6" max="6" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="4" customWidth="1"/>
+    <col min="14" max="26" width="7.88671875" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="12.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -14386,26 +14420,26 @@
       <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="23" t="s">
-        <v>21</v>
+      <c r="H14" s="52" t="s">
+        <v>20</v>
       </c>
-      <c r="I14" s="23" t="s">
-        <v>24</v>
+      <c r="I14" s="52" t="s">
+        <v>20</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -14426,25 +14460,25 @@
       <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="16">
-        <v>999</v>
+      <c r="A15" s="22" t="s">
+        <v>111</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>22</v>
+      <c r="B15" s="23" t="s">
+        <v>112</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11" t="s">
-        <v>23</v>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
+        <v>19</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="23" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="7"/>
@@ -14466,17 +14500,27 @@
       <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>96</v>
+      <c r="A16" s="16">
+        <v>999</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="B16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -14496,7 +14540,9 @@
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="7"/>
+      <c r="A17" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -14523,20 +14569,20 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" spans="1:26" ht="5.0999999999999996" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -14551,22 +14597,20 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+    <row r="19" spans="1:26" ht="5.0999999999999996" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -14582,12 +14626,10 @@
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>25</v>
+      <c r="A20" s="12" t="s">
+        <v>91</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -14615,10 +14657,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -14646,8 +14688,12 @@
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -14673,10 +14719,8 @@
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>92</v>
-      </c>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -14703,9 +14747,9 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.6" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -14734,33 +14778,17 @@
       <c r="Z24" s="7"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>10</v>
+      <c r="A25" s="12" t="s">
+        <v>93</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -14780,26 +14808,32 @@
       <c r="Z25" s="7"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="16" t="s">
-        <v>28</v>
+      <c r="A26" s="15" t="s">
+        <v>10</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>29</v>
+      <c r="B26" s="15" t="s">
+        <v>8</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>51</v>
+      <c r="C26" s="15" t="s">
+        <v>11</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
-        <v>23</v>
+      <c r="D26" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>30</v>
+      <c r="E26" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>30</v>
+      <c r="F26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -14820,17 +14854,27 @@
       <c r="Z26" s="7"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>31</v>
+      <c r="A27" s="16" t="s">
+        <v>28</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="B27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -14850,8 +14894,8 @@
       <c r="Z27" s="7"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="18" t="s">
-        <v>32</v>
+      <c r="A28" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -14880,8 +14924,8 @@
       <c r="Z28" s="7"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>96</v>
+      <c r="A29" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -14910,7 +14954,9 @@
       <c r="Z29" s="7"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="12"/>
+      <c r="A30" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -14937,20 +14983,20 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26" ht="5.0999999999999996" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -14965,22 +15011,20 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+    <row r="32" spans="1:26" ht="5.0999999999999996" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
@@ -14996,12 +15040,10 @@
       <c r="Z32" s="7"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>33</v>
+      <c r="A33" s="12" t="s">
+        <v>91</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -15029,10 +15071,10 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -15060,8 +15102,12 @@
       <c r="Z34" s="7"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -15087,10 +15133,8 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
     </row>
-    <row r="36" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>92</v>
-      </c>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -15117,9 +15161,9 @@
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.6" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -15148,42 +15192,20 @@
       <c r="Z37" s="7"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="15" t="s">
-        <v>10</v>
+      <c r="A38" s="12" t="s">
+        <v>93</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -15200,35 +15222,41 @@
       <c r="Z38" s="7"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="16" t="s">
-        <v>38</v>
+      <c r="A39" s="15" t="s">
+        <v>10</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>39</v>
+      <c r="B39" s="15" t="s">
+        <v>8</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>51</v>
+      <c r="C39" s="15" t="s">
+        <v>11</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11" t="s">
-        <v>40</v>
+      <c r="D39" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>24</v>
+      <c r="E39" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="I39" s="11" t="s">
-        <v>19</v>
+      <c r="F39" s="15" t="s">
+        <v>14</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>41</v>
+      <c r="G39" s="15" t="s">
+        <v>15</v>
       </c>
-      <c r="K39" s="11" t="s">
-        <v>23</v>
+      <c r="H39" s="15" t="s">
+        <v>16</v>
       </c>
-      <c r="L39" s="11" t="s">
-        <v>19</v>
+      <c r="I39" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -15247,10 +15275,10 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>51</v>
@@ -15259,22 +15287,22 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="L40" s="11" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -15292,20 +15320,36 @@
       <c r="Z40" s="7"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="17" t="s">
-        <v>31</v>
+      <c r="A41" s="16" t="s">
+        <v>42</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="B41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
@@ -15322,8 +15366,8 @@
       <c r="Z41" s="7"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="18" t="s">
-        <v>32</v>
+      <c r="A42" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -15352,8 +15396,8 @@
       <c r="Z42" s="7"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>96</v>
+      <c r="A43" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -15382,7 +15426,9 @@
       <c r="Z43" s="7"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="7"/>
+      <c r="A44" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -15409,20 +15455,20 @@
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
     </row>
-    <row r="45" spans="1:26" ht="5.0999999999999996" customHeight="1">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
@@ -15437,22 +15483,20 @@
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
+    <row r="46" spans="1:26" ht="5.0999999999999996" customHeight="1">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
@@ -15468,12 +15512,10 @@
       <c r="Z46" s="7"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="10" t="s">
-        <v>60</v>
+      <c r="A47" s="12" t="s">
+        <v>91</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -15501,10 +15543,10 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -15532,8 +15574,12 @@
       <c r="Z48" s="7"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -15559,10 +15605,8 @@
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
     </row>
-    <row r="50" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A50" s="12" t="s">
-        <v>92</v>
-      </c>
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -15589,9 +15633,9 @@
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.6" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -15620,33 +15664,17 @@
       <c r="Z51" s="7"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A52" s="15" t="s">
-        <v>10</v>
+      <c r="A52" s="12" t="s">
+        <v>93</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -15666,26 +15694,32 @@
       <c r="Z52" s="7"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A53" s="16" t="s">
-        <v>99</v>
+      <c r="A53" s="15" t="s">
+        <v>10</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>61</v>
+      <c r="B53" s="15" t="s">
+        <v>8</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>51</v>
+      <c r="C53" s="15" t="s">
+        <v>11</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11" t="s">
-        <v>45</v>
+      <c r="D53" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>24</v>
+      <c r="E53" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="I53" s="11" t="s">
-        <v>44</v>
+      <c r="F53" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -15707,10 +15741,10 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>51</v>
@@ -15722,10 +15756,10 @@
         <v>45</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -15746,17 +15780,27 @@
       <c r="Z54" s="7"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A55" s="17" t="s">
-        <v>31</v>
+      <c r="A55" s="16" t="s">
+        <v>100</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
+      <c r="B55" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
@@ -15775,9 +15819,9 @@
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
     </row>
-    <row r="56" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A56" s="18" t="s">
-        <v>32</v>
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A56" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -15805,9 +15849,9 @@
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A57" s="12" t="s">
-        <v>96</v>
+    <row r="57" spans="1:26" ht="15.6" customHeight="1">
+      <c r="A57" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -15836,7 +15880,9 @@
       <c r="Z57" s="7"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A58" s="12"/>
+      <c r="A58" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -15863,11 +15909,9 @@
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
     </row>
-    <row r="59" spans="1:26" ht="24">
-      <c r="A59" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="4"/>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A59" s="12"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -15893,11 +15937,11 @@
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A60" s="12" t="s">
-        <v>91</v>
+    <row r="60" spans="1:26" ht="24.6">
+      <c r="A60" s="21" t="s">
+        <v>97</v>
       </c>
-      <c r="B60" s="7"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -15924,12 +15968,10 @@
       <c r="Z60" s="7"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A61" s="10" t="s">
-        <v>33</v>
+      <c r="A61" s="12" t="s">
+        <v>91</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -15957,10 +15999,10 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="10" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -15988,8 +16030,12 @@
       <c r="Z62" s="7"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
+      <c r="A63" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -16016,9 +16062,8 @@
       <c r="Z63" s="7"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A64" s="12" t="s">
-        <v>95</v>
-      </c>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -16045,18 +16090,11 @@
       <c r="Z64" s="7"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A65" s="15" t="s">
-        <v>46</v>
+      <c r="A65" s="12" t="s">
+        <v>95</v>
       </c>
-      <c r="B65" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -16079,20 +16117,19 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
-      <c r="AA65" s="7"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A66" s="16" t="s">
-        <v>48</v>
+      <c r="A66" s="15" t="s">
+        <v>46</v>
       </c>
-      <c r="B66" s="16" t="s">
-        <v>49</v>
+      <c r="B66" s="15" t="s">
+        <v>47</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>50</v>
+      <c r="C66" s="15" t="s">
+        <v>47</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>51</v>
+      <c r="D66" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -16119,10 +16156,18 @@
       <c r="AA66" s="7"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
+      <c r="A67" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
@@ -16145,11 +16190,10 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A68" s="12" t="s">
-        <v>101</v>
-      </c>
+      <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -16178,7 +16222,7 @@
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -16207,18 +16251,13 @@
       <c r="Z69" s="7"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A70" s="15" t="s">
-        <v>46</v>
+      <c r="A70" s="12" t="s">
+        <v>102</v>
       </c>
-      <c r="B70" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -16243,19 +16282,16 @@
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1">
       <c r="A71" s="15" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>11</v>
+      <c r="B71" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
-      <c r="E71" s="15" t="s">
-        <v>53</v>
+      <c r="E71" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
@@ -16280,20 +16316,20 @@
       <c r="Z71" s="7"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A72" s="16" t="s">
-        <v>54</v>
+      <c r="A72" s="15" t="s">
+        <v>10</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>55</v>
+      <c r="B72" s="15" t="s">
+        <v>53</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>51</v>
+      <c r="C72" s="15" t="s">
+        <v>11</v>
       </c>
-      <c r="D72" s="16" t="s">
-        <v>56</v>
+      <c r="D72" s="15" t="s">
+        <v>10</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>57</v>
+      <c r="E72" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
@@ -16319,19 +16355,19 @@
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1">
       <c r="A73" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>43</v>
+      <c r="B73" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
@@ -16356,11 +16392,21 @@
       <c r="Z73" s="7"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
+      <c r="A74" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -16384,9 +16430,7 @@
       <c r="Z74" s="7"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A75" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -16414,7 +16458,9 @@
       <c r="Z75" s="7"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A76" s="7"/>
+      <c r="A76" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -16441,20 +16487,20 @@
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
     </row>
-    <row r="77" spans="1:27" ht="5.0999999999999996" customHeight="1">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
+    <row r="77" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
@@ -16469,22 +16515,20 @@
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A78" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
+    <row r="78" spans="1:27" ht="5.0999999999999996" customHeight="1">
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
       <c r="N78" s="7"/>
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
@@ -16500,12 +16544,10 @@
       <c r="Z78" s="7"/>
     </row>
     <row r="79" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A79" s="10" t="s">
-        <v>60</v>
+      <c r="A79" s="12" t="s">
+        <v>91</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>103</v>
-      </c>
+      <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -16533,10 +16575,10 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1">
       <c r="A80" s="10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -16564,8 +16606,12 @@
       <c r="Z80" s="7"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
+      <c r="A81" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -16591,10 +16637,8 @@
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
     </row>
-    <row r="82" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A82" s="12" t="s">
-        <v>92</v>
-      </c>
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -16621,9 +16665,9 @@
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.6" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -16652,33 +16696,17 @@
       <c r="Z83" s="7"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A84" s="15" t="s">
-        <v>10</v>
+      <c r="A84" s="12" t="s">
+        <v>93</v>
       </c>
-      <c r="B84" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
@@ -16698,26 +16726,32 @@
       <c r="Z84" s="7"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A85" s="16" t="s">
-        <v>63</v>
+      <c r="A85" s="15" t="s">
+        <v>10</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>61</v>
+      <c r="B85" s="15" t="s">
+        <v>8</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>51</v>
+      <c r="C85" s="15" t="s">
+        <v>11</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11" t="s">
-        <v>23</v>
+      <c r="D85" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>44</v>
+      <c r="E85" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="I85" s="11" t="s">
-        <v>44</v>
+      <c r="F85" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
@@ -16738,17 +16772,27 @@
       <c r="Z85" s="7"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A86" s="17" t="s">
-        <v>31</v>
+      <c r="A86" s="16" t="s">
+        <v>63</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
+      <c r="B86" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
@@ -16768,8 +16812,8 @@
       <c r="Z86" s="7"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A87" s="18" t="s">
-        <v>32</v>
+      <c r="A87" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -16798,8 +16842,8 @@
       <c r="Z87" s="7"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A88" s="12" t="s">
-        <v>96</v>
+      <c r="A88" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -16828,7 +16872,9 @@
       <c r="Z88" s="7"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A89" s="7"/>
+      <c r="A89" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -16855,20 +16901,20 @@
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
     </row>
-    <row r="90" spans="1:26" ht="5.0999999999999996" customHeight="1">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7"/>
       <c r="P90" s="7"/>
@@ -16883,22 +16929,20 @@
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A91" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
+    <row r="91" spans="1:26" ht="5.0999999999999996" customHeight="1">
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
       <c r="P91" s="7"/>
@@ -16914,12 +16958,10 @@
       <c r="Z91" s="7"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A92" s="10" t="s">
-        <v>60</v>
+      <c r="A92" s="12" t="s">
+        <v>91</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -16947,10 +16989,10 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -16978,8 +17020,12 @@
       <c r="Z93" s="7"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="A94" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -17005,10 +17051,8 @@
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
     </row>
-    <row r="95" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A95" s="12" t="s">
-        <v>92</v>
-      </c>
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -17035,9 +17079,9 @@
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.6" customHeight="1">
       <c r="A96" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -17066,33 +17110,17 @@
       <c r="Z96" s="7"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A97" s="15" t="s">
-        <v>10</v>
+      <c r="A97" s="12" t="s">
+        <v>93</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H97" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I97" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -17112,26 +17140,32 @@
       <c r="Z97" s="7"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A98" s="16" t="s">
-        <v>66</v>
+      <c r="A98" s="15" t="s">
+        <v>10</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>67</v>
+      <c r="B98" s="15" t="s">
+        <v>8</v>
       </c>
-      <c r="C98" s="11" t="s">
-        <v>51</v>
+      <c r="C98" s="15" t="s">
+        <v>11</v>
       </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11" t="s">
-        <v>45</v>
+      <c r="D98" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="H98" s="11" t="s">
-        <v>44</v>
+      <c r="E98" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="I98" s="11" t="s">
-        <v>44</v>
+      <c r="F98" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -17152,17 +17186,27 @@
       <c r="Z98" s="7"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A99" s="17" t="s">
-        <v>31</v>
+      <c r="A99" s="16" t="s">
+        <v>66</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
+      <c r="B99" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
@@ -17182,8 +17226,8 @@
       <c r="Z99" s="7"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A100" s="18" t="s">
-        <v>32</v>
+      <c r="A100" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -17212,8 +17256,8 @@
       <c r="Z100" s="7"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A101" s="12" t="s">
-        <v>96</v>
+      <c r="A101" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -17242,7 +17286,9 @@
       <c r="Z101" s="7"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A102" s="7"/>
+      <c r="A102" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -17269,20 +17315,20 @@
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
     </row>
-    <row r="103" spans="1:26" ht="5.0999999999999996" customHeight="1">
-      <c r="A103" s="13"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
       <c r="N103" s="7"/>
       <c r="O103" s="7"/>
       <c r="P103" s="7"/>
@@ -17297,22 +17343,20 @@
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A104" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
+    <row r="104" spans="1:26" ht="5.0999999999999996" customHeight="1">
+      <c r="A104" s="13"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
       <c r="N104" s="7"/>
       <c r="O104" s="7"/>
       <c r="P104" s="7"/>
@@ -17328,12 +17372,10 @@
       <c r="Z104" s="7"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A105" s="10" t="s">
-        <v>60</v>
+      <c r="A105" s="12" t="s">
+        <v>91</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>104</v>
-      </c>
+      <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -17361,10 +17403,10 @@
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -17392,8 +17434,12 @@
       <c r="Z106" s="7"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
+      <c r="A107" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -17419,10 +17465,8 @@
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
     </row>
-    <row r="108" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A108" s="12" t="s">
-        <v>92</v>
-      </c>
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -17449,9 +17493,9 @@
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.6" customHeight="1">
       <c r="A109" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -17480,33 +17524,17 @@
       <c r="Z109" s="7"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A110" s="15" t="s">
-        <v>10</v>
+      <c r="A110" s="12" t="s">
+        <v>93</v>
       </c>
-      <c r="B110" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H110" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I110" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
@@ -17526,26 +17554,32 @@
       <c r="Z110" s="7"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A111" s="19" t="s">
-        <v>69</v>
+      <c r="A111" s="15" t="s">
+        <v>10</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>57</v>
+      <c r="B111" s="15" t="s">
+        <v>8</v>
       </c>
-      <c r="C111" s="11" t="s">
-        <v>51</v>
+      <c r="C111" s="15" t="s">
+        <v>11</v>
       </c>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11" t="s">
-        <v>45</v>
+      <c r="D111" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="H111" s="11" t="s">
-        <v>44</v>
+      <c r="E111" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="I111" s="11" t="s">
-        <v>44</v>
+      <c r="F111" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
@@ -17566,15 +17600,27 @@
       <c r="Z111" s="7"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A112" s="17"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
+      <c r="A112" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
@@ -17594,9 +17640,7 @@
       <c r="Z112" s="7"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A113" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="A113" s="17"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -17624,7 +17668,9 @@
       <c r="Z113" s="7"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A114" s="7"/>
+      <c r="A114" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -17651,20 +17697,20 @@
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
     </row>
-    <row r="115" spans="1:26" ht="5.0999999999999996" customHeight="1">
-      <c r="A115" s="13"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
-      <c r="K115" s="14"/>
-      <c r="L115" s="14"/>
-      <c r="M115" s="14"/>
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
       <c r="N115" s="7"/>
       <c r="O115" s="7"/>
       <c r="P115" s="7"/>
@@ -17679,22 +17725,20 @@
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A116" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
+    <row r="116" spans="1:26" ht="5.0999999999999996" customHeight="1">
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="14"/>
+      <c r="M116" s="14"/>
       <c r="N116" s="7"/>
       <c r="O116" s="7"/>
       <c r="P116" s="7"/>
@@ -17710,12 +17754,10 @@
       <c r="Z116" s="7"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A117" s="10" t="s">
-        <v>60</v>
+      <c r="A117" s="12" t="s">
+        <v>91</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>105</v>
-      </c>
+      <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -17743,10 +17785,10 @@
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -17774,8 +17816,12 @@
       <c r="Z118" s="7"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
+      <c r="A119" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -17801,10 +17847,8 @@
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
     </row>
-    <row r="120" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A120" s="12" t="s">
-        <v>92</v>
-      </c>
+    <row r="120" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -17831,9 +17875,9 @@
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.6" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -17862,33 +17906,17 @@
       <c r="Z121" s="7"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A122" s="15" t="s">
-        <v>10</v>
+      <c r="A122" s="12" t="s">
+        <v>93</v>
       </c>
-      <c r="B122" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H122" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I122" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
@@ -17908,26 +17936,32 @@
       <c r="Z122" s="7"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A123" s="19" t="s">
-        <v>71</v>
+      <c r="A123" s="15" t="s">
+        <v>10</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>57</v>
+      <c r="B123" s="15" t="s">
+        <v>8</v>
       </c>
-      <c r="C123" s="11" t="s">
-        <v>51</v>
+      <c r="C123" s="15" t="s">
+        <v>11</v>
       </c>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11" t="s">
-        <v>23</v>
+      <c r="D123" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="H123" s="11" t="s">
-        <v>44</v>
+      <c r="E123" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="I123" s="11" t="s">
-        <v>44</v>
+      <c r="F123" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -17948,15 +17982,27 @@
       <c r="Z123" s="7"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A124" s="17"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
+      <c r="A124" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
@@ -17976,9 +18022,7 @@
       <c r="Z124" s="7"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A125" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="A125" s="17"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -18036,7 +18080,9 @@
       <c r="Z126" s="7"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A127" s="7"/>
+      <c r="A127" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -40239,6 +40285,34 @@
       <c r="Y919" s="7"/>
       <c r="Z919" s="7"/>
     </row>
+    <row r="920" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A920" s="7"/>
+      <c r="B920" s="7"/>
+      <c r="C920" s="7"/>
+      <c r="D920" s="7"/>
+      <c r="E920" s="7"/>
+      <c r="F920" s="7"/>
+      <c r="G920" s="7"/>
+      <c r="H920" s="7"/>
+      <c r="I920" s="7"/>
+      <c r="J920" s="7"/>
+      <c r="K920" s="7"/>
+      <c r="L920" s="7"/>
+      <c r="M920" s="7"/>
+      <c r="N920" s="7"/>
+      <c r="O920" s="7"/>
+      <c r="P920" s="7"/>
+      <c r="Q920" s="7"/>
+      <c r="R920" s="7"/>
+      <c r="S920" s="7"/>
+      <c r="T920" s="7"/>
+      <c r="U920" s="7"/>
+      <c r="V920" s="7"/>
+      <c r="W920" s="7"/>
+      <c r="X920" s="7"/>
+      <c r="Y920" s="7"/>
+      <c r="Z920" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="36"/>
   <hyperlinks>
